--- a/通用的协议帧.xlsx
+++ b/通用的协议帧.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="11850" windowHeight="12195" tabRatio="343"/>
+    <workbookView windowWidth="28245" windowHeight="12465" tabRatio="343"/>
   </bookViews>
   <sheets>
     <sheet name="通用的协议帧" sheetId="1" r:id="rId1"/>
@@ -799,7 +799,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L46" authorId="0">
+    <comment ref="K46" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1340,7 +1340,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="191">
   <si>
     <t>LORA设备通用协议V2.0.2</t>
   </si>
@@ -1621,94 +1621,91 @@
     <t>这个是我接收到需要判断的，然后回执E014</t>
   </si>
   <si>
+    <t>设备路数(Channel)</t>
+  </si>
+  <si>
+    <t>A014</t>
+  </si>
+  <si>
+    <t>0x06(6)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> LoRa设备上报实时工作状态（E014）</t>
+  </si>
+  <si>
+    <t>FE E014 12 C003 55 01 02 01 1176 75 11 000000 00000A 000005 00000000000000 D6 0D0A0D0A0D0A</t>
+  </si>
+  <si>
+    <t>设备当前工作状态(status)</t>
+  </si>
+  <si>
+    <t>电压(Vol)</t>
+  </si>
+  <si>
+    <t>信噪比(Rssi)</t>
+  </si>
+  <si>
+    <t>信号强度(Csq)</t>
+  </si>
+  <si>
+    <t>CurrentOpenRatio(设置的开度)</t>
+  </si>
+  <si>
+    <t>TotalWorkSec(设置工作时长)</t>
+  </si>
+  <si>
+    <t>CurrentWorkSec(当前已工作时长)</t>
+  </si>
+  <si>
+    <t>14-16</t>
+  </si>
+  <si>
+    <t>17-19</t>
+  </si>
+  <si>
+    <t>20-22</t>
+  </si>
+  <si>
+    <t>23-29</t>
+  </si>
+  <si>
+    <t>31-36</t>
+  </si>
+  <si>
+    <t>E014</t>
+  </si>
+  <si>
+    <t>0x1A(26)</t>
+  </si>
+  <si>
+    <t>1176</t>
+  </si>
+  <si>
+    <t>-75</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>000000</t>
+  </si>
+  <si>
+    <t>00000A</t>
+  </si>
+  <si>
+    <t>000005</t>
+  </si>
+  <si>
+    <t>00000000000000</t>
+  </si>
+  <si>
+    <t>强制停止工作指令（A015）</t>
+  </si>
+  <si>
+    <t>61 0C2A0514 000000 FE A015 06 C003 55 01  01 02 D6 0D0A0D0A0D0A</t>
+  </si>
+  <si>
     <t>组id(GroupId)</t>
-  </si>
-  <si>
-    <t>设备路数(Channel)</t>
-  </si>
-  <si>
-    <t>11-15</t>
-  </si>
-  <si>
-    <t>A014</t>
-  </si>
-  <si>
-    <t>0x06(6)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> LoRa设备上报实时工作状态（E014）</t>
-  </si>
-  <si>
-    <t>FE E014 12 C003 55 01 02 01 1176 75 11 000000 00000A 000005 00000000000000 D6 0D0A0D0A0D0A</t>
-  </si>
-  <si>
-    <t>设备当前工作状态(status)</t>
-  </si>
-  <si>
-    <t>电压(Vol)</t>
-  </si>
-  <si>
-    <t>信噪比(Rssi)</t>
-  </si>
-  <si>
-    <t>信号强度(Csq)</t>
-  </si>
-  <si>
-    <t>CurrentOpenRatio(设置的开度)</t>
-  </si>
-  <si>
-    <t>TotalWorkSec(设置工作时长)</t>
-  </si>
-  <si>
-    <t>CurrentWorkSec(当前已工作时长)</t>
-  </si>
-  <si>
-    <t>14-16</t>
-  </si>
-  <si>
-    <t>17-19</t>
-  </si>
-  <si>
-    <t>20-22</t>
-  </si>
-  <si>
-    <t>23-29</t>
-  </si>
-  <si>
-    <t>31-36</t>
-  </si>
-  <si>
-    <t>E014</t>
-  </si>
-  <si>
-    <t>0x1A(26)</t>
-  </si>
-  <si>
-    <t>1176</t>
-  </si>
-  <si>
-    <t>-75</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>000000</t>
-  </si>
-  <si>
-    <t>00000A</t>
-  </si>
-  <si>
-    <t>000005</t>
-  </si>
-  <si>
-    <t>00000000000000</t>
-  </si>
-  <si>
-    <t>强制停止工作指令（A015）</t>
-  </si>
-  <si>
-    <t>61 0C2A0514 000000 FE A015 06 C003 55 01  01 02 D6 0D0A0D0A0D0A</t>
   </si>
   <si>
     <t>Receive_Date</t>
@@ -1923,10 +1920,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -1954,7 +1951,28 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1965,13 +1983,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1998,35 +2009,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -2044,7 +2026,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2053,6 +2043,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2074,14 +2072,13 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -2090,10 +2087,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2117,7 +2114,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2129,43 +2228,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2177,13 +2240,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2201,67 +2258,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2279,25 +2288,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2308,24 +2305,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2340,6 +2319,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2379,6 +2367,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2393,21 +2405,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2416,10 +2413,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2428,133 +2425,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2934,8 +2931,8 @@
   <sheetPr/>
   <dimension ref="A1:R92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+    <sheetView tabSelected="1" topLeftCell="D25" workbookViewId="0">
+      <selection activeCell="N48" sqref="N48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4160,7 +4157,7 @@
       <c r="C45" s="4"/>
       <c r="D45" s="12"/>
     </row>
-    <row r="46" ht="27" spans="1:14">
+    <row r="46" ht="27" spans="1:13">
       <c r="A46" s="5" t="s">
         <v>4</v>
       </c>
@@ -4194,17 +4191,14 @@
       <c r="K46" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="L46" s="6" t="s">
-        <v>94</v>
+      <c r="L46" s="13" t="s">
+        <v>17</v>
       </c>
       <c r="M46" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="N46" s="13" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="47" spans="1:14">
+    <row r="47" spans="1:13">
       <c r="A47" s="5" t="s">
         <v>19</v>
       </c>
@@ -4238,17 +4232,14 @@
       <c r="K47" s="6">
         <v>1</v>
       </c>
-      <c r="L47" s="6">
+      <c r="L47" s="13">
         <v>1</v>
       </c>
       <c r="M47" s="13">
-        <v>1</v>
-      </c>
-      <c r="N47" s="13">
         <v>6</v>
       </c>
     </row>
-    <row r="48" ht="27" spans="1:14">
+    <row r="48" ht="27" spans="1:13">
       <c r="A48" s="8" t="s">
         <v>21</v>
       </c>
@@ -4285,14 +4276,11 @@
       <c r="L48" s="6">
         <v>9</v>
       </c>
-      <c r="M48" s="6">
-        <v>10</v>
-      </c>
-      <c r="N48" s="7" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14">
+      <c r="M48" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
       <c r="A49" s="5" t="s">
         <v>30</v>
       </c>
@@ -4309,10 +4297,10 @@
         <v>31</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H49" s="6" t="s">
         <v>34</v>
@@ -4324,26 +4312,23 @@
         <v>36</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="L49" s="7" t="s">
         <v>39</v>
       </c>
+      <c r="L49" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="M49" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="N49" s="6" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
       <c r="D51" s="11" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E51" s="11"/>
       <c r="F51" s="11"/>
@@ -4380,28 +4365,28 @@
         <v>10</v>
       </c>
       <c r="H53" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I53" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="J53" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="K53" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="J53" s="6" t="s">
+      <c r="L53" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="K53" s="6" t="s">
+      <c r="M53" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="L53" s="6" t="s">
+      <c r="N53" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="M53" s="6" t="s">
+      <c r="O53" s="6" t="s">
         <v>104</v>
-      </c>
-      <c r="N53" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="O53" s="6" t="s">
-        <v>106</v>
       </c>
       <c r="P53" s="6" t="s">
         <v>16</v>
@@ -4507,22 +4492,22 @@
         <v>13</v>
       </c>
       <c r="M55" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="N55" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="O55" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="N55" s="6" t="s">
+      <c r="P55" s="6" t="s">
         <v>108</v>
-      </c>
-      <c r="O55" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="P55" s="6" t="s">
-        <v>110</v>
       </c>
       <c r="Q55" s="6">
         <v>30</v>
       </c>
       <c r="R55" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="56" ht="27" spans="1:18">
@@ -4533,10 +4518,10 @@
         <v>31</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E56" s="6" t="s">
         <v>34</v>
@@ -4554,25 +4539,25 @@
         <v>36</v>
       </c>
       <c r="J56" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="K56" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="L56" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="K56" s="7" t="s">
+      <c r="M56" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="L56" s="7" t="s">
+      <c r="N56" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="M56" s="7" t="s">
+      <c r="O56" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="N56" s="7" t="s">
+      <c r="P56" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="O56" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="P56" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="Q56" s="6" t="s">
         <v>43</v>
@@ -4583,12 +4568,12 @@
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
       <c r="D58" s="11" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E58" s="11"/>
       <c r="F58" s="11"/>
@@ -4635,10 +4620,10 @@
         <v>10</v>
       </c>
       <c r="K60" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="L60" s="6" t="s">
         <v>93</v>
-      </c>
-      <c r="L60" s="6" t="s">
-        <v>94</v>
       </c>
       <c r="M60" s="13" t="s">
         <v>17</v>
@@ -4693,7 +4678,7 @@
     </row>
     <row r="62" spans="1:14">
       <c r="A62" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B62" s="6" t="s">
         <v>54</v>
@@ -4752,10 +4737,10 @@
         <v>31</v>
       </c>
       <c r="F63" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H63" s="6" t="s">
         <v>34</v>
@@ -4781,12 +4766,12 @@
     </row>
     <row r="65" spans="1:8">
       <c r="A65" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
       <c r="D65" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E65" s="11"/>
       <c r="F65" s="11"/>
@@ -4823,10 +4808,10 @@
         <v>10</v>
       </c>
       <c r="H67" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I67" s="6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J67" s="6" t="s">
         <v>16</v>
@@ -4905,13 +4890,13 @@
         <v>9</v>
       </c>
       <c r="J69" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K69" s="6">
         <v>18</v>
       </c>
       <c r="L69" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="70" spans="1:12">
@@ -4922,10 +4907,10 @@
         <v>31</v>
       </c>
       <c r="C70" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="D70" s="6" t="s">
         <v>129</v>
-      </c>
-      <c r="D70" s="6" t="s">
-        <v>130</v>
       </c>
       <c r="E70" s="6" t="s">
         <v>34</v>
@@ -4954,12 +4939,12 @@
     </row>
     <row r="74" spans="1:8">
       <c r="A74" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
       <c r="D74" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E74" s="11"/>
       <c r="F74" s="11"/>
@@ -4968,7 +4953,7 @@
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
@@ -5006,16 +4991,16 @@
         <v>10</v>
       </c>
       <c r="K76" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="L76" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="L76" s="6" t="s">
-        <v>94</v>
-      </c>
       <c r="M76" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="N76" s="6" t="s">
         <v>134</v>
-      </c>
-      <c r="N76" s="6" t="s">
-        <v>135</v>
       </c>
       <c r="O76" s="6" t="s">
         <v>16</v>
@@ -5082,7 +5067,7 @@
     </row>
     <row r="78" spans="1:17">
       <c r="A78" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B78" s="6" t="s">
         <v>54</v>
@@ -5118,19 +5103,19 @@
         <v>9</v>
       </c>
       <c r="M78" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="N78" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="N78" s="7" t="s">
+      <c r="O78" s="6" t="s">
         <v>137</v>
-      </c>
-      <c r="O78" s="6" t="s">
-        <v>138</v>
       </c>
       <c r="P78" s="6">
         <v>24</v>
       </c>
       <c r="Q78" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="79" spans="1:17">
@@ -5150,10 +5135,10 @@
         <v>31</v>
       </c>
       <c r="F79" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="G79" s="6" t="s">
         <v>140</v>
-      </c>
-      <c r="G79" s="6" t="s">
-        <v>141</v>
       </c>
       <c r="H79" s="6" t="s">
         <v>34</v>
@@ -5171,10 +5156,10 @@
         <v>39</v>
       </c>
       <c r="M79" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="N79" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="N79" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="O79" s="7" t="s">
         <v>42</v>
@@ -5226,42 +5211,42 @@
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B83" s="2"/>
     </row>
     <row r="84" ht="18" customHeight="1" spans="1:8">
       <c r="A84" t="s">
+        <v>144</v>
+      </c>
+      <c r="B84" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="B84" s="4" t="s">
+      <c r="C84" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="C84" s="4" t="s">
+      <c r="D84" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="D84" s="4" t="s">
+      <c r="E84" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="E84" s="13" t="s">
+      <c r="F84" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="F84" s="4" t="s">
+      <c r="G84" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="G84" s="4" t="s">
+      <c r="H84" t="s">
         <v>151</v>
-      </c>
-      <c r="H84" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="85" ht="19" customHeight="1" spans="1:8">
       <c r="A85" t="s">
+        <v>152</v>
+      </c>
+      <c r="B85" s="16" t="s">
         <v>153</v>
-      </c>
-      <c r="B85" s="16" t="s">
-        <v>154</v>
       </c>
       <c r="C85" s="16" t="s">
         <v>36</v>
@@ -5270,94 +5255,94 @@
         <v>39</v>
       </c>
       <c r="E85" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="F85" s="16" t="s">
         <v>155</v>
       </c>
-      <c r="F85" s="16" t="s">
+      <c r="G85" s="16" t="s">
         <v>156</v>
       </c>
-      <c r="G85" s="16" t="s">
+      <c r="H85" s="17" t="s">
         <v>157</v>
-      </c>
-      <c r="H85" s="17" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="86" ht="18" customHeight="1" spans="1:8">
       <c r="A86" t="s">
+        <v>158</v>
+      </c>
+      <c r="B86" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="B86" s="4" t="s">
+      <c r="C86" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="C86" s="4" t="s">
+      <c r="D86" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="D86" s="4" t="s">
+      <c r="E86" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="E86" s="4" t="s">
+      <c r="F86" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="F86" s="4" t="s">
+      <c r="G86" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="G86" s="4" t="s">
+      <c r="H86" s="4" t="s">
         <v>165</v>
-      </c>
-      <c r="H86" s="4" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B88" s="2"/>
     </row>
     <row r="89" ht="27" spans="1:12">
       <c r="A89" t="s">
+        <v>144</v>
+      </c>
+      <c r="B89" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="B89" s="15" t="s">
-        <v>146</v>
-      </c>
       <c r="C89" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="D89" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="D89" s="15" t="s">
+      <c r="E89" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="E89" s="15" t="s">
+      <c r="F89" t="s">
         <v>170</v>
       </c>
-      <c r="F89" t="s">
+      <c r="G89" t="s">
         <v>171</v>
       </c>
-      <c r="G89" t="s">
+      <c r="H89" t="s">
         <v>172</v>
       </c>
-      <c r="H89" t="s">
+      <c r="I89" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="I89" s="4" t="s">
+      <c r="J89" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="J89" s="4" t="s">
+      <c r="K89" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="K89" s="4" t="s">
+      <c r="L89" s="4" t="s">
         <v>176</v>
-      </c>
-      <c r="L89" s="4" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="90" spans="1:12">
       <c r="A90" t="s">
+        <v>152</v>
+      </c>
+      <c r="B90" s="17" t="s">
         <v>153</v>
-      </c>
-      <c r="B90" s="17" t="s">
-        <v>154</v>
       </c>
       <c r="C90" s="17" t="s">
         <v>36</v>
@@ -5366,66 +5351,66 @@
         <v>39</v>
       </c>
       <c r="E90" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="F90" s="17" t="s">
         <v>155</v>
       </c>
-      <c r="F90" s="17" t="s">
+      <c r="G90" s="17" t="s">
         <v>156</v>
       </c>
-      <c r="G90" s="17" t="s">
+      <c r="H90" s="17" t="s">
         <v>157</v>
       </c>
-      <c r="H90" s="17" t="s">
-        <v>158</v>
-      </c>
       <c r="I90" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="J90" s="17" t="s">
         <v>178</v>
       </c>
-      <c r="J90" s="17" t="s">
+      <c r="K90" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="K90" s="17" t="s">
+      <c r="L90" s="17" t="s">
         <v>180</v>
-      </c>
-      <c r="L90" s="17" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="91" spans="1:12">
       <c r="A91" t="s">
+        <v>158</v>
+      </c>
+      <c r="B91" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="B91" s="4" t="s">
-        <v>160</v>
-      </c>
       <c r="C91" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="D91" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="D91" s="4" t="s">
+      <c r="E91" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="E91" s="4" t="s">
+      <c r="F91" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="F91" s="4" t="s">
+      <c r="G91" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="G91" s="4" t="s">
+      <c r="H91" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="H91" s="4" t="s">
+      <c r="I91" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="I91" s="4" t="s">
+      <c r="J91" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="J91" s="4" t="s">
+      <c r="K91" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="K91" s="4" t="s">
+      <c r="L91" s="4" t="s">
         <v>190</v>
-      </c>
-      <c r="L91" s="4" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="92" spans="7:7">
@@ -5478,7 +5463,7 @@
     <brk id="18" max="87" man="1"/>
   </colBreaks>
   <ignoredErrors>
-    <ignoredError sqref="D42 J42:K43 G35:H35 D28 G21:H22 N14:O14 J14 J7 K12:K13 D14 H5 G7:H7 D49 J49:L49 O79 J79:L79 G56 J56:L56 H56 A85:G85 D79 C90:L90 D63 K63:L63 E70:J70" numberStoredAsText="1"/>
+    <ignoredError sqref="E70:J70 K63:L63 D63 C90:L90 D79 A85:G85 H56 J56:L56 G56 J79:L79 O79 J49 K49 D49 G7:H7 H5 D14 K12:K13 J7 J14 N14:O14 G21:H22 D28 G35:H35 J42:K43 D42" numberStoredAsText="1"/>
   </ignoredErrors>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
